--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Akiyoshi\チーム制作\新しいフォルダー\GameProbuctionPractice1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38EAFB8-BF3B-4238-B82E-39A357B08986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB00F239-E1DF-41D6-8F4A-547183336DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2850" windowWidth="21600" windowHeight="11295" xr2:uid="{A0BA4298-C2C7-4C54-BB3A-0BA7CD3DD91A}"/>
+    <workbookView xWindow="3180" yWindow="1620" windowWidth="23685" windowHeight="11295" xr2:uid="{A0BA4298-C2C7-4C54-BB3A-0BA7CD3DD91A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>2月</t>
     <rPh sb="1" eb="2">
@@ -81,13 +81,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>シーン作成</t>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>敵</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -95,14 +88,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ﾌﾟﾚｲﾔｰ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ｽﾃｰｼﾞ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>完成</t>
     <rPh sb="0" eb="2">
       <t>カンセイ</t>
@@ -117,13 +102,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ｴﾈﾐｰ作成</t>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>予備</t>
     <rPh sb="0" eb="2">
       <t>ヨビ</t>
@@ -131,16 +109,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ﾌﾟﾚｲﾔｰ当たり判定</t>
-    <rPh sb="6" eb="7">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>enemy当たり判定</t>
     <rPh sb="5" eb="6">
       <t>ア</t>
@@ -183,6 +151,73 @@
     <rPh sb="2" eb="4">
       <t>カクニン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5種類のエネミー作成</t>
+    <rPh sb="1" eb="3">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カメラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーの当たり判定</t>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーの基礎</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＆</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ﾌﾞﾗｯｼｭｱｯﾌﾟ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリアシーン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ｹﾞｰﾑｵｰﾊﾞｰｼｰﾝ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デバッグ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> シーン作成(ﾀｲﾄﾙ､ｾﾚｸﾄ)など</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>素材探し&amp;作成</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マップ作成</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイシーン</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -787,22 +822,33 @@
   <dimension ref="A1:BH6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AS13" sqref="AS13"/>
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="24" width="2.875" customWidth="1"/>
-    <col min="25" max="25" width="5.375" customWidth="1"/>
+    <col min="2" max="17" width="2.875" customWidth="1"/>
+    <col min="18" max="18" width="3.125" customWidth="1"/>
+    <col min="19" max="19" width="3.75" customWidth="1"/>
+    <col min="20" max="20" width="6" customWidth="1"/>
+    <col min="21" max="21" width="9.875" customWidth="1"/>
+    <col min="22" max="24" width="2.875" customWidth="1"/>
+    <col min="25" max="25" width="6" customWidth="1"/>
     <col min="26" max="26" width="9.25" customWidth="1"/>
     <col min="27" max="27" width="11.375" customWidth="1"/>
-    <col min="28" max="28" width="4.875" customWidth="1"/>
+    <col min="28" max="28" width="7.625" customWidth="1"/>
     <col min="29" max="30" width="2.875" customWidth="1"/>
     <col min="31" max="31" width="8.125" customWidth="1"/>
     <col min="32" max="33" width="2.875" customWidth="1"/>
     <col min="34" max="34" width="4.625" customWidth="1"/>
-    <col min="35" max="60" width="2.875" customWidth="1"/>
+    <col min="35" max="37" width="2.875" customWidth="1"/>
+    <col min="38" max="38" width="5.625" customWidth="1"/>
+    <col min="39" max="39" width="7.125" customWidth="1"/>
+    <col min="40" max="40" width="3.375" customWidth="1"/>
+    <col min="41" max="41" width="3.75" customWidth="1"/>
+    <col min="42" max="42" width="4" customWidth="1"/>
+    <col min="43" max="60" width="2.875" customWidth="1"/>
     <col min="61" max="87" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1014,44 +1060,46 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
+      <c r="U3" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Y3" s="22" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Z3" s="22"/>
       <c r="AA3" s="22"/>
-      <c r="AB3" s="23" t="s">
+      <c r="AB3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="AC3" s="9"/>
       <c r="AD3" s="9"/>
       <c r="AE3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF3" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="14" t="s">
-        <v>13</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="AF3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
-      <c r="AL3" s="14"/>
+      <c r="AL3" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="AM3" s="14"/>
       <c r="AN3" s="19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AO3" s="19"/>
       <c r="AP3" s="19"/>
@@ -1094,7 +1142,7 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="13" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
@@ -1104,32 +1152,36 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
       <c r="Y4" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z4" s="17"/>
       <c r="AA4" s="21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AB4" s="21"/>
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AF4" s="21" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AG4" s="21"/>
       <c r="AH4" s="21"/>
       <c r="AI4" s="17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AJ4" s="9"/>
       <c r="AK4" s="9"/>
-      <c r="AL4" s="17"/>
+      <c r="AL4" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="AM4" s="17"/>
       <c r="AN4" s="19"/>
-      <c r="AO4" s="19"/>
+      <c r="AO4" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="AP4" s="19"/>
       <c r="AQ4" s="9"/>
       <c r="AR4" s="9"/>
@@ -1169,40 +1221,46 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
+      <c r="Q5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
-      <c r="Y5" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z5" s="24"/>
+      <c r="Y5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z5" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="AA5" s="24"/>
       <c r="AB5" s="15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
       <c r="AE5" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AF5" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AG5" s="26"/>
       <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
+      <c r="AI5" s="24"/>
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
-      <c r="AL5" s="18"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="19"/>
+      <c r="AL5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="AO5" s="19"/>
       <c r="AP5" s="19"/>
       <c r="AQ5" s="9"/>
@@ -1226,10 +1284,10 @@
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.4">
       <c r="AE6" s="25" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AM6" s="20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV6" s="10" t="s">
         <v>2</v>
@@ -1243,17 +1301,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="26553de7-2a3a-444c-a024-df4cb947fd03" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0d4a769-b4b6-44f5-bafd-bfbeb89b0b0c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005F0D9E193D28814892BA96752E68B42F" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="7ef2c4f7c5cf37d6221d7b1dda883374">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c0d4a769-b4b6-44f5-bafd-bfbeb89b0b0c" xmlns:ns3="26553de7-2a3a-444c-a024-df4cb947fd03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="725cefcd41332f88909580cd13155635" ns2:_="" ns3:_="">
     <xsd:import namespace="c0d4a769-b4b6-44f5-bafd-bfbeb89b0b0c"/>
@@ -1448,6 +1495,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="26553de7-2a3a-444c-a024-df4cb947fd03" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0d4a769-b4b6-44f5-bafd-bfbeb89b0b0c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1458,17 +1516,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB4AC433-DB2B-4AE9-979C-606A42CB94A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="26553de7-2a3a-444c-a024-df4cb947fd03"/>
-    <ds:schemaRef ds:uri="c0d4a769-b4b6-44f5-bafd-bfbeb89b0b0c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{974AEB67-0EB4-422A-8375-3AEC86DF31AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1487,6 +1534,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB4AC433-DB2B-4AE9-979C-606A42CB94A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="26553de7-2a3a-444c-a024-df4cb947fd03"/>
+    <ds:schemaRef ds:uri="c0d4a769-b4b6-44f5-bafd-bfbeb89b0b0c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDC1435B-6AB6-4AB2-8181-7AB2A8D90409}">
   <ds:schemaRefs>

--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Akiyoshi\チーム制作\新しいフォルダー\GameProbuctionPractice1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB00F239-E1DF-41D6-8F4A-547183336DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1810B24-1C9D-4128-BC18-A494B62FB65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="1620" windowWidth="23685" windowHeight="11295" xr2:uid="{A0BA4298-C2C7-4C54-BB3A-0BA7CD3DD91A}"/>
+    <workbookView xWindow="-90" yWindow="480" windowWidth="26850" windowHeight="11295" xr2:uid="{A0BA4298-C2C7-4C54-BB3A-0BA7CD3DD91A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>2月</t>
     <rPh sb="1" eb="2">
@@ -130,10 +130,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ﾌﾟﾚｲｼｰﾝ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>手直し期間</t>
     <rPh sb="0" eb="2">
       <t>テナオ</t>
@@ -217,7 +213,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プレイシーン</t>
+    <t>ステージギミック</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -821,15 +817,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1593A4E0-6E65-4532-B1F4-86DE2F579452}">
   <dimension ref="A1:BH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AL9" sqref="AL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="17" width="2.875" customWidth="1"/>
-    <col min="18" max="18" width="3.125" customWidth="1"/>
+    <col min="18" max="18" width="13.5" customWidth="1"/>
     <col min="19" max="19" width="3.75" customWidth="1"/>
     <col min="20" max="20" width="6" customWidth="1"/>
     <col min="21" max="21" width="9.875" customWidth="1"/>
@@ -842,7 +838,8 @@
     <col min="31" max="31" width="8.125" customWidth="1"/>
     <col min="32" max="33" width="2.875" customWidth="1"/>
     <col min="34" max="34" width="4.625" customWidth="1"/>
-    <col min="35" max="37" width="2.875" customWidth="1"/>
+    <col min="35" max="35" width="4.875" customWidth="1"/>
+    <col min="36" max="37" width="2.875" customWidth="1"/>
     <col min="38" max="38" width="5.625" customWidth="1"/>
     <col min="39" max="39" width="7.125" customWidth="1"/>
     <col min="40" max="40" width="3.375" customWidth="1"/>
@@ -1063,31 +1060,29 @@
         <v>6</v>
       </c>
       <c r="R3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23" t="s">
         <v>26</v>
-      </c>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="23" t="s">
-        <v>27</v>
       </c>
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Y3" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z3" s="22"/>
       <c r="AA3" s="22"/>
-      <c r="AB3" s="16" t="s">
-        <v>13</v>
-      </c>
+      <c r="AB3" s="22"/>
       <c r="AC3" s="9"/>
       <c r="AD3" s="9"/>
       <c r="AE3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="AF3" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG3" s="16"/>
       <c r="AH3" s="16"/>
@@ -1095,11 +1090,11 @@
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM3" s="14"/>
       <c r="AN3" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO3" s="19"/>
       <c r="AP3" s="19"/>
@@ -1142,7 +1137,7 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
@@ -1175,12 +1170,12 @@
       <c r="AJ4" s="9"/>
       <c r="AK4" s="9"/>
       <c r="AL4" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM4" s="17"/>
       <c r="AN4" s="19"/>
       <c r="AO4" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP4" s="19"/>
       <c r="AQ4" s="9"/>
@@ -1222,7 +1217,7 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R5" s="24"/>
       <c r="S5" s="24"/>
@@ -1232,10 +1227,10 @@
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z5" s="24" t="s">
         <v>17</v>
-      </c>
-      <c r="Z5" s="24" t="s">
-        <v>18</v>
       </c>
       <c r="AA5" s="24"/>
       <c r="AB5" s="15" t="s">
@@ -1247,7 +1242,7 @@
         <v>9</v>
       </c>
       <c r="AF5" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG5" s="26"/>
       <c r="AH5" s="18"/>
@@ -1255,11 +1250,11 @@
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
       <c r="AL5" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM5" s="24"/>
       <c r="AN5" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO5" s="19"/>
       <c r="AP5" s="19"/>
@@ -1301,6 +1296,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="26553de7-2a3a-444c-a024-df4cb947fd03" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0d4a769-b4b6-44f5-bafd-bfbeb89b0b0c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005F0D9E193D28814892BA96752E68B42F" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="7ef2c4f7c5cf37d6221d7b1dda883374">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c0d4a769-b4b6-44f5-bafd-bfbeb89b0b0c" xmlns:ns3="26553de7-2a3a-444c-a024-df4cb947fd03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="725cefcd41332f88909580cd13155635" ns2:_="" ns3:_="">
     <xsd:import namespace="c0d4a769-b4b6-44f5-bafd-bfbeb89b0b0c"/>
@@ -1495,17 +1501,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="26553de7-2a3a-444c-a024-df4cb947fd03" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0d4a769-b4b6-44f5-bafd-bfbeb89b0b0c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1516,6 +1511,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB4AC433-DB2B-4AE9-979C-606A42CB94A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="26553de7-2a3a-444c-a024-df4cb947fd03"/>
+    <ds:schemaRef ds:uri="c0d4a769-b4b6-44f5-bafd-bfbeb89b0b0c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{974AEB67-0EB4-422A-8375-3AEC86DF31AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1534,17 +1540,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB4AC433-DB2B-4AE9-979C-606A42CB94A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="26553de7-2a3a-444c-a024-df4cb947fd03"/>
-    <ds:schemaRef ds:uri="c0d4a769-b4b6-44f5-bafd-bfbeb89b0b0c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDC1435B-6AB6-4AB2-8181-7AB2A8D90409}">
   <ds:schemaRefs>
